--- a/氣象性能評估工具V2/data/obs/backup/2016-06-30_t2_obs.xlsx
+++ b/氣象性能評估工具V2/data/obs/backup/2016-06-30_t2_obs.xlsx
@@ -91,7 +91,7 @@
     <t>恆春</t>
   </si>
   <si>
-    <t>2016-06-30 00:00:00</t>
+    <t>2016-06-30-00</t>
   </si>
   <si>
     <t>20.9</t>
@@ -163,7 +163,7 @@
     <t>27.6</t>
   </si>
   <si>
-    <t>2016-06-30 01:00:00</t>
+    <t>2016-06-30-01</t>
   </si>
   <si>
     <t>19.1</t>
@@ -208,7 +208,7 @@
     <t>27.9</t>
   </si>
   <si>
-    <t>2016-06-30 02:00:00</t>
+    <t>2016-06-30-02</t>
   </si>
   <si>
     <t>20.2</t>
@@ -244,7 +244,7 @@
     <t>27.7</t>
   </si>
   <si>
-    <t>2016-06-30 03:00:00</t>
+    <t>2016-06-30-03</t>
   </si>
   <si>
     <t>22.2</t>
@@ -283,7 +283,7 @@
     <t>28.5</t>
   </si>
   <si>
-    <t>2016-06-30 04:00:00</t>
+    <t>2016-06-30-04</t>
   </si>
   <si>
     <t>22.5</t>
@@ -307,7 +307,7 @@
     <t>27.1</t>
   </si>
   <si>
-    <t>2016-06-30 05:00:00</t>
+    <t>2016-06-30-05</t>
   </si>
   <si>
     <t>23.7</t>
@@ -322,7 +322,7 @@
     <t>29.0</t>
   </si>
   <si>
-    <t>2016-06-30 06:00:00</t>
+    <t>2016-06-30-06</t>
   </si>
   <si>
     <t>22.1</t>
@@ -346,7 +346,7 @@
     <t>30.0</t>
   </si>
   <si>
-    <t>2016-06-30 07:00:00</t>
+    <t>2016-06-30-07</t>
   </si>
   <si>
     <t>23.4</t>
@@ -394,7 +394,7 @@
     <t>30.4</t>
   </si>
   <si>
-    <t>2016-06-30 08:00:00</t>
+    <t>2016-06-30-08</t>
   </si>
   <si>
     <t>30.1</t>
@@ -427,7 +427,7 @@
     <t>32.0</t>
   </si>
   <si>
-    <t>2016-06-30 09:00:00</t>
+    <t>2016-06-30-09</t>
   </si>
   <si>
     <t>31.8</t>
@@ -463,7 +463,7 @@
     <t>32.6</t>
   </si>
   <si>
-    <t>2016-06-30 10:00:00</t>
+    <t>2016-06-30-10</t>
   </si>
   <si>
     <t>31.9</t>
@@ -490,7 +490,7 @@
     <t>32.8</t>
   </si>
   <si>
-    <t>2016-06-30 11:00:00</t>
+    <t>2016-06-30-11</t>
   </si>
   <si>
     <t>33.5</t>
@@ -511,7 +511,7 @@
     <t>33.2</t>
   </si>
   <si>
-    <t>2016-06-30 12:00:00</t>
+    <t>2016-06-30-12</t>
   </si>
   <si>
     <t>30.7</t>
@@ -532,7 +532,7 @@
     <t>33.3</t>
   </si>
   <si>
-    <t>2016-06-30 13:00:00</t>
+    <t>2016-06-30-13</t>
   </si>
   <si>
     <t>33.0</t>
@@ -550,7 +550,7 @@
     <t>31.3</t>
   </si>
   <si>
-    <t>2016-06-30 14:00:00</t>
+    <t>2016-06-30-14</t>
   </si>
   <si>
     <t>34.4</t>
@@ -568,7 +568,7 @@
     <t>9.5</t>
   </si>
   <si>
-    <t>2016-06-30 15:00:00</t>
+    <t>2016-06-30-15</t>
   </si>
   <si>
     <t>16.1</t>
@@ -577,7 +577,7 @@
     <t>8.5</t>
   </si>
   <si>
-    <t>2016-06-30 16:00:00</t>
+    <t>2016-06-30-16</t>
   </si>
   <si>
     <t>24.1</t>
@@ -589,7 +589,7 @@
     <t>23.3</t>
   </si>
   <si>
-    <t>2016-06-30 17:00:00</t>
+    <t>2016-06-30-17</t>
   </si>
   <si>
     <t>23.8</t>
@@ -601,7 +601,7 @@
     <t>6.2</t>
   </si>
   <si>
-    <t>2016-06-30 18:00:00</t>
+    <t>2016-06-30-18</t>
   </si>
   <si>
     <t>22.7</t>
@@ -613,7 +613,7 @@
     <t>5.9</t>
   </si>
   <si>
-    <t>2016-06-30 19:00:00</t>
+    <t>2016-06-30-19</t>
   </si>
   <si>
     <t>24.0</t>
@@ -622,13 +622,13 @@
     <t>5.5</t>
   </si>
   <si>
-    <t>2016-06-30 20:00:00</t>
+    <t>2016-06-30-20</t>
   </si>
   <si>
     <t>21.5</t>
   </si>
   <si>
-    <t>2016-06-30 21:00:00</t>
+    <t>2016-06-30-21</t>
   </si>
   <si>
     <t>23.2</t>
@@ -637,7 +637,7 @@
     <t>13.8</t>
   </si>
   <si>
-    <t>2016-06-30 22:00:00</t>
+    <t>2016-06-30-22</t>
   </si>
   <si>
     <t>22.9</t>
@@ -649,7 +649,7 @@
     <t>28.0</t>
   </si>
   <si>
-    <t>2016-06-30 23:00:00</t>
+    <t>2016-06-30-23</t>
   </si>
   <si>
     <t>21.3</t>
